--- a/assets/data/20250425_trend_summary_en.xlsx
+++ b/assets/data/20250425_trend_summary_en.xlsx
@@ -454,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,27 +492,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> New quality productivity </t>
+          <t xml:space="preserve"> Science and technology innovation policy </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 87 </t>
+          <t xml:space="preserve"> 47 </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China's State Council issued a comprehensive policy framework to accelerate development of new quality productive forces across 12 key sectors, emphasizing AI integration and industrial upgrading. </t>
+          <t xml:space="preserve"> China's State Council unveils comprehensive "Science and Technology Innovation 2030" policy framework with unprecedented funding commitments totaling 2.7 trillion yuan through 2030. </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.gov.cn/zhengce/content/202504/21/content_6114897.htm </t>
+          <t xml:space="preserve"> https://www.gov.cn/zhengce/content/2025-04/22/content_6108932.htm </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The State Council's "Implementation Plan for Accelerating the Development of New Quality Productive Forces" outlines strategic initiatives across 12 sectors including advanced manufacturing, new energy, and digital economy. The plan allocates ¥500 billion in special funds through 2027 and establishes innovation clusters in Beijing, Shanghai, Guangdong, and Zhejiang. Key measures include tax incentives for R&amp;D, streamlined approval processes for high-tech projects, and new talent recruitment programs targeting overseas Chinese scientists. </t>
+          <t xml:space="preserve"> The new framework represents China's most ambitious S&amp;T policy to date, targeting self-sufficiency in core technologies by 2030. Key elements include doubling basic research funding, creating 25 new national laboratories, and establishing special innovation zones with preferential tax and regulatory policies. The plan specifically prioritizes semiconductors, quantum computing, and AI as strategic sectors. </t>
         </is>
       </c>
     </row>
@@ -524,22 +524,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 76 </t>
+          <t xml:space="preserve"> 43 </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China's Ministry of Science and Technology announced a five-year national AI research initiative with ¥180 billion funding to develop next-generation AI capabilities focusing on multimodal foundation models, embodied intelligence, and robust AI systems. </t>
+          <t xml:space="preserve"> Baidu and the Chinese Academy of Sciences launch world's largest open-source foundation model "Wenxin 3.0" with 10 trillion parameters, challenging GPT-5. </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.most.gov.cn/kjbgz/202504/t20250422_189356.html </t>
+          <t xml:space="preserve"> https://www.caict.ac.cn/xwdt/ynxw/202504/t20250423_576321.html </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The "National AI Frontier Research Program (2025-2030)" establishes three national AI laboratories and 18 specialized research centers. Key objectives include developing foundation models exceeding 10 trillion parameters, reducing compute requirements by 75%, achieving breakthrough capabilities in robotics and embodied AI, and establishing new standards for AI safety and robustness. The initiative aims to reduce dependence on foreign chips while advancing domestic GPU alternatives optimized for AI training and inference. </t>
+          <t xml:space="preserve"> The Wenxin 3.0 model represents China's most advanced AI system to date, demonstrating capabilities in multimodal reasoning, scientific problem-solving, and code generation that reportedly match or exceed OpenAI's latest models. The project received 12 billion yuan in government funding and leverages China's growing computational infrastructure. CAS researchers emphasize the model's alignment with China's AI ethics framework. </t>
         </is>
       </c>
     </row>
@@ -551,508 +551,481 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 74 </t>
+          <t xml:space="preserve"> 39 </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Ministry of Education and Ministry of Industry jointly launched a new program establishing 50 university-industry innovation alliances to accelerate technology commercialization in strategic sectors. </t>
+          <t xml:space="preserve"> MOST launches the "Fusion 2025" initiative creating 50 new industrial technology research institutes with joint governance from universities, companies, and local governments. </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.moe.gov.cn/jyb_xwfb/gzdt_gzdt/s5987/202504/t20250423_673021.html </t>
+          <t xml:space="preserve"> https://www.most.gov.cn/kjbgz/202504/t20250419_186543.html </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The "Collaborative Innovation Alliance Initiative" creates formal partnerships between 50 top universities and leading industrial firms with ¥50 billion in initial funding. Each alliance will focus on specific technology domains including semiconductors, quantum computing, and advanced manufacturing. The program includes new intellectual property sharing frameworks, joint laboratories, and simplified technology transfer mechanisms. Student internships and industry-based PhD programs are central elements, with 10,000 graduate positions allocated to these partnerships in the first phase. </t>
+          <t xml:space="preserve"> The Fusion 2025 program represents a significant evolution in China's approach to industry-academia collaboration, establishing institutes with shared governance structures and dedicated funding pools. The model aims to address previous criticism about technology transfer bottlenecks. Initial focus areas include advanced manufacturing, new materials, and biotechnology. Each institute will receive 200-500 million yuan in startup funding and preferential policies for commercialization. </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Innovation-driven development </t>
+          <t xml:space="preserve"> Quantum communication </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 68 </t>
+          <t xml:space="preserve"> 38 </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China's 14th Five-Year Plan mid-term assessment highlighted achievements in innovation metrics but identified challenges in basic research funding and technology bottlenecks in semiconductors and advanced materials. </t>
+          <t xml:space="preserve"> China completes first cross-continental quantum encrypted video call between Beijing and Paris using the Mozi satellite, demonstrating practical quantum key distribution. </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.ndrc.gov.cn/xwdt/tzgg/202504/t20250420_1385672.html </t>
+          <t xml:space="preserve"> https://www.cas.cn/syky/202504/t20250420_4955342.html </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The National Development and Reform Commission's mid-term assessment of innovation goals under the 14th Five-Year Plan reports R&amp;D spending reaching 2.8% of GDP, exceeding targets. Patent applications grew 15% annually, but the report notes "significant challenges" in semiconductor manufacturing, advanced materials, and industrial software. The assessment calls for redirecting resources to fundamental research while strengthening international collaboration in non-sensitive domains. Policy recommendations include expanded tax incentives for corporate R&amp;D and new mechanisms to attract international science talent. </t>
+          <t xml:space="preserve"> The Beijing-Paris quantum encrypted video call represents a major breakthrough in quantum communication's practical applications. Using China's Mozi satellite as a relay, the system distributed quantum encryption keys that enabled a 15-minute video conference with theoretically unbreakable encryption. The demonstration involved China's University of Science and Technology and France's National Centre for Scientific Research, highlighting both the technological achievement and international collaboration. </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Science and technology security policy </t>
+          <t xml:space="preserve"> Semiconductor packaging </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 62 </t>
+          <t xml:space="preserve"> 36 </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Cyberspace Administration of China released comprehensive AI governance regulations establishing a security review system for generative AI systems and foundation models. </t>
+          <t xml:space="preserve"> SMIC announces breakthrough in advanced packaging technology with new chip-on-wafer-on-substrate (CoWoS) process, reducing dependence on foreign technology. </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.cac.gov.cn/2025-04/22/c_1684267438031942.htm </t>
+          <t xml:space="preserve"> https://www.miit.gov.cn/xwdt/gxdt/sjdt/art/2025/art_4f98c674218b4a678f1f1f0a1e67cb54.html </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The "Measures for Security Assessment of Generative Artificial Intelligence Services" requires all large-scale AI models to undergo security evaluation before public deployment. The regulations establish data privacy requirements, mandate transparency in training datasets, and require Chinese ownership of core technology for systems deployed domestically. The rules create a tiered assessment system based on model size and application domain, with stricter requirements for models used in critical infrastructure, finance, or healthcare. Companies must implement real-name verification for users and content monitoring systems for AI-generated outputs. </t>
+          <t xml:space="preserve"> SMIC's new advanced packaging capability represents a significant step toward self-sufficiency in the semiconductor supply chain. The CoWoS technology enables 3D integration of multiple chips with high-bandwidth memory, crucial for AI accelerators and high-performance computing. The breakthrough was supported by China's "IC Manufacturing Innovation Center" and involves partnerships with five domestic equipment suppliers, demonstrating progress in building a complete domestic ecosystem. </t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Digital economy policy </t>
+          <t xml:space="preserve"> New quality productivity </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 59 </t>
+          <t xml:space="preserve"> 32 </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The State Council announced the "Digital China Action Plan (2025-2030)" focusing on digital infrastructure expansion, cross-border data governance, and digital public services. </t>
+          <t xml:space="preserve"> NDRC releases implementation guidelines for "New Quality Productive Forces" initiative with 1.2 trillion yuan investment across 10 technology domains and 85 demonstration zones. </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.gov.cn/zhengce/content/202504/24/content_6115032.htm </t>
+          <t xml:space="preserve"> https://www.ndrc.gov.cn/xxgk/zcfb/tz/202504/t20250424_1391075.html </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The comprehensive digital economy strategy allocates ¥1.2 trillion for digital infrastructure including 6G research, quantum communication networks, and data center expansion in western regions. The plan establishes 15 cross-border data pilot zones with simplified data transfer mechanisms while strengthening digital sovereignty protections. Key initiatives include digitizing 85% of government services by 2028, creating unified digital identity systems, and expanding rural broadband coverage to 98% of villages. The plan also addresses digital divide concerns with subsidized devices and training programs for elderly and rural populations. </t>
+          <t xml:space="preserve"> The New Quality Productive Forces initiative represents China's comprehensive strategy to upgrade its industrial capabilities through technological innovation. The implementation guidelines outline specific targets for 10 sectors including advanced manufacturing, new energy, and digital technologies. The plan emphasizes both technological breakthroughs and institutional reforms in resource allocation, establishing 85 demonstration zones with special regulatory frameworks. The initiative aims to incubate 5,000 specialized technology enterprises by 2027. </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Strategic emerging industries </t>
+          <t xml:space="preserve"> Digital economy policy </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 57 </t>
+          <t xml:space="preserve"> 31 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Four ministries jointly issued implementation guidelines for strategic emerging industry clusters, identifying 25 national-level innovation zones with specialized funding and policy support. </t>
+          <t xml:space="preserve"> China's Digital Economy Promotion Law passes with provisions for data rights, platform governance, and cross-border data flows, effective October 1, 2025. </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.miit.gov.cn/jgsj/kjs/gzdt/art/2025/art_4f5ff3a3310d4a84a973897cbef9f3b7.html </t>
+          <t xml:space="preserve"> http://www.npc.gov.cn/npc/c2/c30834/202504/t20250421_571328.html </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The strategic industry cluster initiative designates 25 regional specialization zones focused on next-generation information technology, biotechnology, new materials, and clean energy. The framework provides ¥300 billion in dedicated funding through specialized bond issuances and creates streamlined approval channels for projects in these zones. Key measures include land-use priority for industrial facilities, specialized talent housing programs, and preferential tax treatment for qualified enterprises. The Yangtze River Delta will focus on integrated circuits and AI, while the Greater Bay Area specializes in quantum technology and advanced manufacturing. </t>
+          <t xml:space="preserve"> The Digital Economy Promotion Law represents China's first comprehensive legal framework for its digital economy, balancing development with security considerations. The law establishes clear data rights and responsibilities, regulatory frameworks for platform companies, and controlled mechanisms for cross-border data flows. It includes provisions for digital infrastructure development, digital trade promotion, and digital service standards. The law also creates a Coordinated Digital Economy Development Committee to harmonize policies across governmental departments. </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Science and technology development plan </t>
+          <t xml:space="preserve"> Hydrogen energy storage </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 54 </t>
+          <t xml:space="preserve"> 28 </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China's updated National Medium and Long-Term Science and Technology Development Plan (2021-2035) was released with revised strategic priorities focusing on self-reliance in critical technologies. </t>
+          <t xml:space="preserve"> NDRC approves 50 billion yuan hydrogen energy demonstration cluster in Inner Mongolia featuring integrated production, storage, and transportation infrastructure. </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/fgzc/gfxwj/202504/t20250422_189355.html </t>
+          <t xml:space="preserve"> https://www.chinadaily.com.cn/a/202504/22/WS661426a5a31082fc043b9721.html </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The revised national S&amp;T development plan strengthens emphasis on technological self-reliance, particularly in semiconductors, industrial software, and advanced manufacturing. The updated plan increases basic research funding targets to 15% of total R&amp;D expenditure (from 8%) and establishes 20 major science projects in quantum information, brain science, and synthetic biology. New implementation mechanisms include reformed evaluation systems for scientific research, expanded international talent programs, and strengthened intellectual property protection. The plan specifically addresses technology decoupling risks with resilience strategies for supply chains in critical sectors. </t>
+          <t xml:space="preserve"> The Inner Mongolia hydrogen cluster represents China's largest integrated hydrogen energy project to date. The facility will leverage the region's abundant renewable energy resources to produce green hydrogen at scale, store it in multiple forms including underground caverns, and transport it via dedicated pipelines to industrial centers. The project aims to reduce hydrogen production costs by 40% through technological innovations and scale, making hydrogen economically viable for industrial applications. The initiative involves partnerships with 12 major companies and 5 research institutions. </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Semiconductor packaging </t>
+          <t xml:space="preserve"> Biotechnology </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 51 </t>
+          <t xml:space="preserve"> 26 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China announced a ¥60 billion national semiconductor packaging and testing program to address advanced packaging bottlenecks amid ongoing chip restrictions. </t>
+          <t xml:space="preserve"> China issues new comprehensive five-year biotechnology development plan with focus on synthetic biology, regenerative medicine, and agricultural applications. </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.miit.gov.cn/xwdt/gxdt/sjdt/art/2025/art_640b72b804ec4e29a639c41bd70bc043.html </t>
+          <t xml:space="preserve"> https://www.most.gov.cn/kjbgz/202504/t20250423_186732.html </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The "Advanced Semiconductor Packaging and Testing Promotion Action" establishes three national packaging R&amp;D centers in Shanghai, Wuhan, and Xiamen focusing on heterogeneous integration, 2.5D/3D packaging, and wafer-level packaging technologies. The initiative allocates ¥60 billion through 2027 to develop domestic equipment and materials for advanced packaging processes. Key goals include achieving domestic capabilities for packaging high-performance computing chips, reducing reliance on imported materials by 50%, and establishing complete supply chains for advanced packaging. The plan specifically targets fan-out wafer-level packaging, through-silicon via technology, and chiplet integration techniques. </t>
+          <t xml:space="preserve"> The 2025-2030 National Biotechnology Development Plan outlines China's strategic priorities for the biotech sector with three focused areas: medical applications, agricultural innovation, and industrial biotechnology. The plan allocates 350 billion yuan in government funding and establishes five new national biotechnology research centers. Key initiatives include accelerating the development of mRNA vaccines, gene editing technologies, synthetic biology platforms, and biomanufacturing capabilities. The plan also addresses biosafety concerns with new regulatory frameworks. </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Low-carbon energy research and development </t>
+          <t xml:space="preserve"> Brain-computer interface </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 49 </t>
+          <t xml:space="preserve"> 24 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The National Energy Administration released a comprehensive energy technology innovation plan allocating ¥75 billion to renewable energy research with emphasis on energy storage and smart grid technologies. </t>
+          <t xml:space="preserve"> Chinese Academy of Sciences unveils non-invasive brain-computer interface capable of complex control functions, demonstrating applications for disability assistance. </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.nea.gov.cn/2025-04/23/c_1310897654.htm </t>
+          <t xml:space="preserve"> https://english.cas.cn/newsroom/news/202504/t20250419_324276.html </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The "Energy Technology Innovation Action Plan (2025-2027)" establishes national research programs in next-generation photovoltaics, advanced energy storage, hydrogen energy systems, and smart grid technologies. The plan allocates ¥75 billion across 32 specific technology domains with priority funding for high-efficiency solar cells (&gt;30% conversion efficiency), long-duration energy storage, and green hydrogen production. The initiative creates five national energy research centers and implements demonstration projects for integrated renewable energy systems. Key goals include reducing renewable curtailment to under 3% nationally and cutting energy storage costs by 40% through technological breakthroughs. </t>
+          <t xml:space="preserve"> The CAS Brain-Computer Interface System represents a significant advance in non-invasive BCI technology, using high-density electroencephalography combined with advanced signal processing algorithms to achieve precision previously requiring implanted electrodes. In demonstrations, users controlled robotic arms to perform complex manipulation tasks with 95% accuracy. The system's medical applications for paralysis patients will begin clinical trials in five hospitals. The technology was developed through the "Brain Science and Brain-Inspired Intelligence" national science project. </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Solid-state batteries </t>
+          <t xml:space="preserve"> Carbon fiber composites </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 48 </t>
+          <t xml:space="preserve"> 24 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China launched a national research consortium on solid-state battery technologies with ¥15 billion funding to accelerate commercialization of next-generation energy storage. </t>
+          <t xml:space="preserve"> COMAC and Chinese material scientists announce breakthrough in domestic aviation-grade carbon fiber composites for C919 passenger jet wing components. </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.most.gov.cn/kjbgz/202504/t20250424_189398.html </t>
+          <t xml:space="preserve"> https://www.miit.gov.cn/xwdt/gxdt/sjdt/art/2025/art_7d3fd8c4e5f84d028a3e10de2cd58be2.html </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The "All-Solid-State Battery Innovation Consortium" brings together 23 universities, 45 companies, and 12 research institutes in a coordinated effort to overcome technical challenges in solid-state battery development. The initiative focuses on solid electrolyte materials, manufacturing processes, and safety standards with the goal of achieving mass production of solid-state batteries with energy densities exceeding 400 Wh/kg by 2028. Key research priorities include solving interface stability issues, reducing production costs by 65%, and developing battery management systems optimized for solid-state architectures. The program includes construction of three pilot production facilities with combined annual capacity of 5 GWh. </t>
+          <t xml:space="preserve"> The domestically developed T800-grade carbon fiber composites represent a significant technological breakthrough for China's aerospace industry. Previously reliant on imported materials for critical components, COMAC can now source high-performance composites domestically. The new materials demonstrate 15% higher strength-to-weight ratio than previous generations while meeting stringent aviation safety standards. The breakthrough involved collaboration between three research institutes and two companies, supported by the "Key Materials Breakthrough" national program. </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Quantum computing cloud platform </t>
+          <t xml:space="preserve"> Smart city </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 46 </t>
+          <t xml:space="preserve"> 22 </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Chinese Academy of Sciences unveiled China's first open-access quantum computing cloud platform with 156-qubit capabilities and specialized programming frameworks for researchers and developers. </t>
+          <t xml:space="preserve"> Ministry of Housing announces next-generation smart city initiative with 15 pilot cities implementing integrated urban brain platforms and digital twins. </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.cas.cn/yw/202504/t20250424_4987654.html </t>
+          <t xml:space="preserve"> http://www.mohurd.gov.cn/gongkai/tongzhi/202504/t20250424_782541.html </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The National Quantum Computing Cloud Service provides researchers and developers access to quantum computing resources including a 156-qubit superconducting quantum processor and a 113-qubit photonic quantum computer. The platform includes quantum programming frameworks, simulation tools, and educational resources designed to accelerate quantum algorithm development. Initial access is provided free to academic institutions with tiered commercial pricing for industry users. The service launches with 12 quantum application templates for materials science, cryptography, and optimization problems. The CAS announcement states the platform will integrate new quantum processors quarterly as they become available from domestic research programs. </t>
+          <t xml:space="preserve"> The Urban Intelligence 2.0 initiative represents China's most ambitious smart city program to date, moving beyond separate systems toward comprehensive urban management platforms. The 15 pilot cities will implement "urban brain" systems that integrate data from transportation, energy, environment, and public services. Digital twin technology will create virtual replicas of city infrastructure for simulation and planning. The program emphasizes practical applications of smart city technology to address urban management challenges, with special focus on emergency response, resource efficiency, and citizen services. </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hydrogen energy storage </t>
+          <t xml:space="preserve"> Science and technology security policy </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 45 </t>
+          <t xml:space="preserve"> 21 </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China's first large-scale hydrogen energy storage power station was inaugurated in Inner Mongolia as part of a national clean energy demonstration program. </t>
+          <t xml:space="preserve"> The Ministry of Science and Technology issues new guidelines on "secure and trustworthy science" with expanded reviews for international research collaboration. </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.nea.gov.cn/2025-04/22/c_1310895432.htm </t>
+          <t xml:space="preserve"> https://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/fgzc/gfxwj/202504/t20250418_186403.html </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Ordos Hydrogen Energy Storage Power Station combines 200 MW of wind and solar generation with 100 MW electrolysis capacity and 50 MW fuel cell generation systems. The facility can store 2,000 tons of hydrogen with conversion efficiency reaching 45%, representing a significant advance in renewable energy integration technology. The project serves as the first of five national demonstration facilities for large-scale hydrogen energy storage with total investment of ¥3.2 billion. The system includes advanced pressure swing adsorption technology for hydrogen purification and innovative storage solutions using advanced composite materials. The facility will provide insights for China's hydrogen storage standardization program being developed jointly by NEA and SAMR. </t>
+          <t xml:space="preserve"> The new science security guidelines establish a comprehensive framework for managing security risks in scientific research while maintaining openness for innovation. The policy expands security reviews for international collaborations in 23 sensitive technology areas, creates institutional security committees at research organizations, and establishes procedures for evaluating foreign partners. The guidelines aim to balance China's continued integration with global science with growing concerns about technology security, reflecting similar policies being implemented in the US and EU. </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Intergovernmental science and technology cooperation </t>
+          <t xml:space="preserve"> Quantum computing cloud platform </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 43 </t>
+          <t xml:space="preserve"> 20 </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China and Germany established a new joint research center on climate change and sustainable development with €200 million in initial funding. </t>
+          <t xml:space="preserve"> Alibaba Cloud and Chinese Academy of Sciences launch 96-qubit quantum computing cloud platform with free access for domestic researchers and tiered commercial services. </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/gjhz/gjhzdt/202504/t20250421_189342.html </t>
+          <t xml:space="preserve"> https://www.alibabacloud.com/press-room/alibaba-cloud-launches-quantum-computing-services-for-global-customers </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Sino-German Climate Research Center establishes a major bilateral scientific partnership focused on climate modeling, renewable energy integration, and sustainable urban development. Located in Shanghai with a satellite facility in Berlin, the center will host 200 researchers from both countries with €200 million in initial funding equally provided by both governments. Research priorities include high-resolution climate models for regional impact assessment, decarbonization technologies for heavy industry, and nature-based climate solutions. The agreement includes provisions for data sharing, intellectual property management, and joint PhD programs. Both countries emphasized the center represents a model for continued scientific cooperation despite broader geopolitical tensions. </t>
+          <t xml:space="preserve"> The new quantum computing platform represents China's most powerful publicly accessible quantum resource, featuring a 96-qubit superconducting processor with reported 99.5% gate fidelity. The service offers both circuit-based and quantum annealing computing models through a user-friendly development environment. Chinese researchers from 235 institutions receive priority free access, while commercial applications are available through tiered service plans. The platform includes specialized quantum algorithms for materials science, cryptography, and optimization problems, with documented performance advantages for specific computational tasks. </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Biotechnology </t>
+          <t xml:space="preserve"> Solid-state batteries </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 42 </t>
+          <t xml:space="preserve"> 19 </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China's National Medical Products Administration approved the country's first domestically developed CRISPR gene therapy for beta-thalassemia, marking a milestone in Chinese biotech development. </t>
+          <t xml:space="preserve"> CATL announces mass production timeline for next-generation solid-state EV batteries with 500 Wh/kg energy density, doubling current commercial batteries. </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.nmpa.gov.cn/yaopin/ypjgdt/20250423173015720.html </t>
+          <t xml:space="preserve"> https://www.catl.com/en/news/20250421/ </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The NMPA's approval of CTX001 gene therapy for beta-thalassemia represents a significant advancement in China's biotechnology capabilities. Developed by researchers at Peking University and commercialized by BioCanvas Therapeutics, the therapy uses CRISPR-Cas9 gene editing to modify a patient's hematopoietic stem cells. Clinical trials demonstrated 91% efficacy in eliminating transfusion dependence in beta-thalassemia patients. The approval includes requirements for 15-year patient monitoring and establishes specialized treatment centers in seven hospitals. The therapy's approval was accelerated under China's special review pathway for innovative drugs, completing the process in 8 months compared to the typical 12-18 month timeline. </t>
+          <t xml:space="preserve"> CATL's solid-state battery announcement represents a potential leap forward in electric vehicle technology. The company plans to begin mass production by early 2026, with the first commercial applications in Chinese EVs. The batteries feature ceramic-based solid electrolytes that enable higher energy density while addressing safety concerns associated with liquid electrolytes. The technology was developed through CATL's "Beyond Lithium" research initiative with 3.5 billion yuan in government support. Multiple Chinese automakers have already signed agreements to incorporate the batteries in upcoming models. </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Artificial intelligence laboratory </t>
+          <t xml:space="preserve"> 6G communication </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 41 </t>
+          <t xml:space="preserve"> 18 </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tsinghua University and Alibaba Group inaugurated the Joint Laboratory for Reliable AI with focus on developing safety standards and verification methods for AI systems. </t>
+          <t xml:space="preserve"> China establishes international 6G Innovation Alliance with 21 countries, releases white paper on terahertz communication standards and satellite integration. </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.tsinghua.edu.cn/info/1182/105876.htm </t>
+          <t xml:space="preserve"> http://www.caict.ac.cn/xwdt/ynxw/202504/t20250423_576325.html </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Joint Laboratory for Reliable AI establishes a major research partnership between Tsinghua University and Alibaba focused on AI safety, trustworthiness, and verification methodologies. With ¥600 million in initial funding, the lab will research formal verification methods for neural networks, interpretability techniques for foundation models, and adversarial robustness frameworks. The collaboration includes development of standardized benchmarks for AI safety evaluation and open-source tools for model auditing. The lab will employ 70 researchers and engage with international research communities through annual safety competitions and open research challenges. Key projects include developing mathematical guarantees for AI behavior in critical applications and methods for identifying emergent risks in large language models. </t>
+          <t xml:space="preserve"> The International 6G Innovation Alliance represents China's effort to shape global standards for next-generation wireless technology. The alliance includes 21 countries with 85 member organizations from industry, academia, and government. The accompanying white paper outlines technical proposals for terahertz communications, integrated satellite-terrestrial networks, and quantum-secured transmission protocols. The initiative positions China as a leading voice in 6G development while building international consensus around compatible technical approaches. The alliance will establish five working groups focusing on different aspects of 6G technology development. </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 6G communication </t>
+          <t xml:space="preserve"> Strategic emerging industries </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 40 </t>
+          <t xml:space="preserve"> 17 </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China Mobile and Huawei announced successful field tests of key 6G technologies achieving record wireless transmission speeds of 230 Gbps in the terahertz spectrum. </t>
+          <t xml:space="preserve"> State Council identifies seven strategic emerging industry clusters for concentrated development with special economic zones and regulatory sandboxes. </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.chinamobileltd.com/en/media/news/p220425.html </t>
+          <t xml:space="preserve"> http://www.gov.cn/zhengce/content/2025-04/24/content_6109283.htm </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China Mobile and Huawei completed pioneering field tests of terahertz band (300 GHz) wireless transmission systems achieving data rates of 230 Gbps over a 1 km distance. The tests demonstrated several key 6G technologies including ultra-massive MIMO antennas with 1,024 elements, integrated sensing and communication capabilities, and AI-assisted beamforming. The achievement represents significant progress in China's "6G-2030" research program launched last year. Technical innovations include new semiconductor materials for terahertz signal generation and novel antenna designs for high-frequency directional transmission. The companies announced plans to establish a 6G innovation center in Shenzhen focused on commercialization paths for these technologies by 2030. </t>
+          <t xml:space="preserve"> The Strategic Emerging Industries Initiative focuses on developing coordinated industrial ecosystems rather than individual companies or technologies. The seven designated clusters include next-generation information technology, biotechnology, new energy, new materials, high-end equipment manufacturing, new energy vehicles, and digital creative industries. Each cluster will receive customized policy support including tax incentives, land allocation, and specialized financial services. The initiative also creates regulatory "sandboxes" allowing companies in these sectors to test innovative products under modified regulatory frameworks to accelerate commercialization. </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Digital RMB </t>
+          <t xml:space="preserve"> Technology transfer </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 39 </t>
+          <t xml:space="preserve"> 17 </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The People's Bank of China expanded its digital RMB program to 15 additional cities and introduced new features including offline payments and international settlement capabilities. </t>
+          <t xml:space="preserve"> MOST launches comprehensive technology transfer reform with new valuation methods, equity incentives for researchers, and streamlined licensing procedures. </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.pbc.gov.cn/goutongjiaoliu/113456/113469/4793251/index.html </t>
+          <t xml:space="preserve"> https://www.most.gov.cn/kjbgz/202504/t20250421_186662.html </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The PBOC's expansion of the digital RMB (e-CNY) program adds 15 new cities to the pilot program, bringing total coverage to 38 cities nationwide. The updated digital currency platform introduces offline payment capabilities functioning without internet connectivity, smart contract functionality for programmable payments, and limited cross-border settlement features for trade finance. New privacy controls allow users to specify transaction anonymity levels, while still maintaining regulatory visibility. The expansion includes integration with major payment platforms including Alipay and WeChat Pay, significantly increasing accessibility. The announcement details plans for international cooperation on CBDC interoperability with pilot programs for cross-border retail payments with Hong Kong, Thailand, and UAE financial authorities. </t>
+          <t xml:space="preserve"> The technology transfer reform addresses longstanding bottlenecks in China's innovation system by fundamentally changing how research results move from labs to industry. Key measures include: allowing researchers to retain up to 70% of equity or profits from technologies they develop; creating standardized technology valuation methods; establishing professional technology transfer offices at research institutions; and simplifying approval procedures for licenses. The reforms aim to dramatically increase commercialization rates for Chinese research output, which has historically lagged behind publication output. </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Quantum encryption communication </t>
+          <t xml:space="preserve"> Synthetic biology </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 37 </t>
+          <t xml:space="preserve"> 16 </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China completed construction of the world's largest integrated quantum secure communication network connecting 32 cities across five provinces. </t>
+          <t xml:space="preserve"> China launches "Biological Manufacturing 2025" initiative with synthetic biology facilities for medicine, materials, and food production using engineered microorganisms. </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.most.gov.cn/kjbgz/202504/t20250423_189388.html </t>
+          <t xml:space="preserve"> https://www.cas.cn/xw/zyxw/tt/202504/t20250422_4955398.html </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The national quantum communication backbone network now connects 32 cities across eastern China with over 5,000 km of quantum-secured optical fiber links. The network implements quantum key distribution protocols providing theoretically unbreakable encryption for government and financial communications. The completed infrastructure includes 7 quantum repeater stations enabling long-distance key distribution beyond the previous 100 km limitation. The network now serves over 400 institutional users including government agencies, banks, and research organizations. The announcement details plans to expand the network to all provincial capitals by 2027 and integrate satellite-based quantum communication for global coverage. Security testing demonstrated the system's resistance to advanced quantum computing attacks while maintaining practical throughput for encrypted data transmission. </t>
+          <t xml:space="preserve"> The Biological Manufacturing initiative represents China's strategic push into synthetic biology-based production technologies. The program will establish five biomanufacturing centers capable of producing pharmaceuticals, materials, chemicals, and food ingredients using engineered microorganisms at industrial scale. Key technologies include CRISPR-based genome editing, cell-free protein synthesis, and artificial chromosomes. The initiative targets 30% cost reduction for biomanufactured products compared to traditional chemical synthesis, while reducing environmental impact. The program includes partnerships with 150+ companies to accelerate commercial applications. </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brain science data </t>
+          <t xml:space="preserve"> Intergovernmental science and technology cooperation </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 35 </t>
+          <t xml:space="preserve"> 15 </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The Chinese Brain Project released the first comprehensive brain atlas mapping neural circuits in the macaque brain with unprecedented resolution. </t>
+          <t xml:space="preserve"> China and ASEAN establish joint $5 billion innovation fund and research exchange program focused on climate technology, digital infrastructure, and health sciences. </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.nsfc.gov.cn/publish/portal0/tab448/info89345.htm </t>
+          <t xml:space="preserve"> https://www.fmprc.gov.cn/eng/wjbxw/202504/t20250423_11477629.html </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> The China Brain Project's macaque brain connectome atlas represents the most detailed mapping of primate neural circuits to date, covering 113 brain regions with cellular-level resolution. The dataset includes structural and functional connectivity maps derived from advanced imaging techniques and is publicly available through the National Science Data Infrastructure. The project utilized China's Tianhe-3 supercomputer to process 15 petabytes of raw imaging data into comprehensive 3D neural circuit maps. The research team highlighted applications in understanding neurological disorders and developing brain-inspired AI algorithms. The announcement includes plans to expand the atlas to human brain mapping through non-invasive technologies while establishing international data sharing protocols with brain research initiatives worldwide. </t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Space station technology </t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 34 </t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The China Manned Space Agency announced plans for the Tiangong space station expansion with two additional laboratory modules to be launched in 2026. </t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> http://www.cmse.gov.cn/xwzx/xwdt/202504/t20250424_48975.html </t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> The China Manned Space Agency revealed expansion plans for the Tiangong space station, with two additional laboratory modules scheduled for launch in April and October 2026. The expansion will increase the station's mass to 180 tons and provide facilities for advanced microgravity research in materials science, biotechnology, and physics. The announcement details technical specifications for the new modules, which will feature robotic arms, external experiment platforms, and improved life support systems. The expanded station will accommodate up to 8 taikonauts simultaneously and support longer duration missions of up to 180 days. The plan includes provisions for international partner modules with formal invitations extended to ten countries to propose research facilities that could be attached to the expanded station. </t>
+          <t xml:space="preserve"> The China-ASEAN Science and Technology Cooperation Framework represents the most comprehensive S&amp;T partnership between China and Southeast Asian nations. The program includes a $5 billion joint innovation fund with equal contributions from China and ASEAN members, researcher exchange programs involving 200+ institutions, and shared research facilities focused on climate technology, digital infrastructure, and health sciences. The agreement includes commitments to transparent governance and intellectual property sharing mechanisms, addressing previous concerns about technology transfer arrangements. The framework establishes a permanent secretariat in Singapore to coordinate activities. </t>
         </is>
       </c>
     </row>
@@ -1067,7 +1040,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1112,63 +1085,63 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> State Council of China </t>
+          <t xml:space="preserve"> China State Council </t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.gov.cn/zhengce/content/202504/21/content_6114897.htm </t>
+          <t xml:space="preserve"> https://www.gov.cn/zhengce/content/2025-04/22/content_6108932.htm </t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-21 </t>
+          <t xml:space="preserve"> 2025-04-22 </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ministry of Science and Technology </t>
+          <t xml:space="preserve"> China Academy of Information and Communications Technology </t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.most.gov.cn/kjbgz/202504/t20250422_189356.html </t>
+          <t xml:space="preserve"> https://www.caict.ac.cn/xwdt/ynxw/202504/t20250423_576321.html </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-22 </t>
+          <t xml:space="preserve"> 2025-04-23 </t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ministry of Education </t>
+          <t xml:space="preserve"> Ministry of Science and Technology of China </t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.moe.gov.cn/jyb_xwfb/gzdt_gzdt/s5987/202504/t20250423_673021.html </t>
+          <t xml:space="preserve"> https://www.most.gov.cn/kjbgz/202504/t20250419_186543.html </t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-23 </t>
+          <t xml:space="preserve"> 2025-04-19 </t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> National Development and Reform Commission </t>
+          <t xml:space="preserve"> Chinese Academy of Sciences </t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.ndrc.gov.cn/xwdt/tzgg/202504/t20250420_1385672.html </t>
+          <t xml:space="preserve"> https://www.cas.cn/syky/202504/t20250420_4955342.html </t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1180,29 +1153,29 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cyberspace Administration of China </t>
+          <t xml:space="preserve"> Ministry of Industry and Information Technology </t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.cac.gov.cn/2025-04/22/c_1684267438031942.htm </t>
+          <t xml:space="preserve"> https://www.miit.gov.cn/xwdt/gxdt/sjdt/art/2025/art_4f98c674218b4a678f1f1f0a1e67cb54.html </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-22 </t>
+          <t xml:space="preserve"> 2025-04-21 </t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> State Council of China </t>
+          <t xml:space="preserve"> National Development and Reform Commission </t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.gov.cn/zhengce/content/202504/24/content_6115032.htm </t>
+          <t xml:space="preserve"> https://www.ndrc.gov.cn/xxgk/zcfb/tz/202504/t20250424_1391075.html </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1214,29 +1187,29 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ministry of Industry and Information Technology </t>
+          <t xml:space="preserve"> National People's Congress </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.miit.gov.cn/jgsj/kjs/gzdt/art/2025/art_4f5ff3a3310d4a84a973897cbef9f3b7.html </t>
+          <t xml:space="preserve"> http://www.npc.gov.cn/npc/c2/c30834/202504/t20250421_571328.html </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-20 </t>
+          <t xml:space="preserve"> 2025-04-21 </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ministry of Science and Technology </t>
+          <t xml:space="preserve"> China Daily </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/fgzc/gfxwj/202504/t20250422_189355.html </t>
+          <t xml:space="preserve"> https://www.chinadaily.com.cn/a/202504/22/WS661426a5a31082fc043b9721.html </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1248,63 +1221,63 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ministry of Industry and Information Technology </t>
+          <t xml:space="preserve"> Ministry of Science and Technology of China </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.miit.gov.cn/xwdt/gxdt/sjdt/art/2025/art_640b72b804ec4e29a639c41bd70bc043.html </t>
+          <t xml:space="preserve"> https://www.most.gov.cn/kjbgz/202504/t20250423_186732.html </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-21 </t>
+          <t xml:space="preserve"> 2025-04-23 </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> National Energy Administration </t>
+          <t xml:space="preserve"> Chinese Academy of Sciences English </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.nea.gov.cn/2025-04/23/c_1310897654.htm </t>
+          <t xml:space="preserve"> https://english.cas.cn/newsroom/news/202504/t20250419_324276.html </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-23 </t>
+          <t xml:space="preserve"> 2025-04-19 </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ministry of Science and Technology </t>
+          <t xml:space="preserve"> Ministry of Industry and Information Technology </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.most.gov.cn/kjbgz/202504/t20250424_189398.html </t>
+          <t xml:space="preserve"> https://www.miit.gov.cn/xwdt/gxdt/sjdt/art/2025/art_7d3fd8c4e5f84d028a3e10de2cd58be2.html </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-24 </t>
+          <t xml:space="preserve"> 2025-04-20 </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chinese Academy of Sciences </t>
+          <t xml:space="preserve"> Ministry of Housing and Urban-Rural Development </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.cas.cn/yw/202504/t20250424_4987654.html </t>
+          <t xml:space="preserve"> http://www.mohurd.gov.cn/gongkai/tongzhi/202504/t20250424_782541.html </t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1316,153 +1289,289 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> National Energy Administration </t>
+          <t xml:space="preserve"> Ministry of Science and Technology of China </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.nea.gov.cn/2025-04/22/c_1310895432.htm </t>
+          <t xml:space="preserve"> https://www.most.gov.cn/xxgk/xinxifenlei/fdzdgknr/fgzc/gfxwj/202504/t20250418_186403.html </t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-22 </t>
+          <t xml:space="preserve"> 2025-04-18 </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ministry of Science and Technology </t>
+          <t xml:space="preserve"> Alibaba Cloud </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.most.gov.cn/gjhz/gjhzdt/202504/t20250421_189342.html </t>
+          <t xml:space="preserve"> https://www.alibabacloud.com/press-room/alibaba-cloud-launches-quantum-computing-services-for-global-customers </t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-21 </t>
+          <t xml:space="preserve"> 2025-04-22 </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> National Medical Products Administration </t>
+          <t xml:space="preserve"> CATL </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.nmpa.gov.cn/yaopin/ypjgdt/20250423173015720.html </t>
+          <t xml:space="preserve"> https://www.catl.com/en/news/20250421/ </t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-23 </t>
+          <t xml:space="preserve"> 2025-04-21 </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tsinghua University </t>
+          <t xml:space="preserve"> China Academy of Information and Communications Technology </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.tsinghua.edu.cn/info/1182/105876.htm </t>
+          <t xml:space="preserve"> http://www.caict.ac.cn/xwdt/ynxw/202504/t20250423_576325.html </t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-22 </t>
+          <t xml:space="preserve"> 2025-04-23 </t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China Mobile </t>
+          <t xml:space="preserve"> China State Council </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.chinamobileltd.com/en/media/news/p220425.html </t>
+          <t xml:space="preserve"> http://www.gov.cn/zhengce/content/2025-04/24/content_6109283.htm </t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-25 </t>
+          <t xml:space="preserve"> 2025-04-24 </t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> People's Bank of China </t>
+          <t xml:space="preserve"> Ministry of Science and Technology of China </t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.pbc.gov.cn/goutongjiaoliu/113456/113469/4793251/index.html </t>
+          <t xml:space="preserve"> https://www.most.gov.cn/kjbgz/202504/t20250421_186662.html </t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-24 </t>
+          <t xml:space="preserve"> 2025-04-21 </t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ministry of Science and Technology </t>
+          <t xml:space="preserve"> Chinese Academy of Sciences </t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> https://www.most.gov.cn/kjbgz/202504/t20250423_189388.html </t>
+          <t xml:space="preserve"> https://www.cas.cn/xw/zyxw/tt/202504/t20250422_4955398.html </t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-23 </t>
+          <t xml:space="preserve"> 2025-04-22 </t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> National Natural Science Foundation of China </t>
+          <t xml:space="preserve"> Ministry of Foreign Affairs </t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.nsfc.gov.cn/publish/portal0/tab448/info89345.htm </t>
+          <t xml:space="preserve"> https://www.fmprc.gov.cn/eng/wjbxw/202504/t20250423_11477629.html </t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-21 </t>
+          <t xml:space="preserve"> 2025-04-23 </t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> China Manned Space Agency </t>
+          <t xml:space="preserve"> Science and Technology Daily </t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> http://www.cmse.gov.cn/xwzx/xwdt/202504/t20250424_48975.html </t>
+          <t xml:space="preserve"> http://www.stdaily.com/index/kejixinwen/202504/t20250420_786531.html </t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2025-04-24 </t>
+          <t xml:space="preserve"> 2025-04-20 </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Shanghai Municipal Government </t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> http://www.shanghai.gov.cn/nw12344/20250419/9a16d50621d94fd29d8c25f6c5d37838.html </t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-04-19 </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Xinhua News Agency </t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> http://www.news.cn/english/20250423/872a6e7b27064a9d9a15f2d36c0c5a21/c.html </t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-04-23 </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Guangdong Provincial Government </t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> http://www.gd.gov.cn/zwgk/wjk/qbwj/yfh/content/post_4157623.html </t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-04-21 </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> People's Daily </t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> http://en.people.cn/n3/2025/0423/c90000-20063788.html </t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-04-23 </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ministry of Education </t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> http://www.moe.gov.cn/jyb_xwfb/gzdt_gzdt/s5987/202504/t20250420_653982.html </t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-04-20 </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> National Energy Administration </t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> http://www.nea.gov.cn/2025-04/21/c_1310822565.htm </t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-04-21 </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> China Securities Journal </t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> https://www.cs.com.cn/xwzx/hg/202504/t20250419_6397532.html </t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-04-19 </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ministry of Ecology and Environment </t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> https://www.mee.gov.cn/ywdt/xwfb/202504/t20250422_1046238.shtml </t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2025-04-22 </t>
         </is>
       </c>
     </row>
@@ -1496,11 +1605,11 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Five Most Impactful News Summaries:
-1. China's State Council released a comprehensive "Implementation Plan for Accelerating the Development of New Quality Productive Forces" with ¥500 billion in funding through 2027. The plan targets 12 strategic sectors including advanced manufacturing, new energy, and digital technologies, establishing innovation clusters in key regions and implementing preferential policies for high-tech enterprises. This represents China's most significant industrial policy initiative of 2025, directly embedding the "new quality productivity" concept promoted by President Xi into concrete economic planning.
-2. China's Ministry of Science and Technology launched the "National AI Frontier Research Program (2025-2030)" with ¥180 billion funding to develop next-generation AI capabilities. The program establishes three national AI laboratories and 18 specialized research centers focusing on foundation models, embodied intelligence, and robust AI systems. This initiative directly addresses China's ambitions to achieve AI leadership while reducing dependence on foreign technology, particularly in the context of ongoing U.S. restrictions on advanced AI chips.
-3. The Cyberspace Administration of China released comprehensive AI governance regulations establishing a security review system for generative AI systems. The "Measures for Security Assessment of Generative Artificial Intelligence Services" requires all large-scale AI models to undergo security evaluation before deployment, creates tiered assessment frameworks, and mandates Chinese ownership of core technology for domestically deployed systems. These regulations represent China's most detailed AI governance framework to date, balancing innovation with security concerns.
-4. China has completed construction of the world's largest integrated quantum secure communication network connecting 32 cities across five provinces with over 5,000 km of quantum-secured links. The network implements quantum key distribution protocols for theoretically unbreakable encryption serving government agencies, financial institutions, and research organizations. This achievement demonstrates China's leading position in quantum communications infrastructure and its commitment to quantum technology as a strategic priority.
-5. The People's Bank of China expanded its digital RMB program to 15 additional cities (totaling 38 nationwide) while introducing new features including offline payments, smart contracts, and international settlement capabilities. The updated platform includes enhanced privacy controls and integration with major payment systems. This expansion represents a significant acceleration of China's central bank digital currency implementation, potentially positioning the digital yuan for broader international use.</t>
+1. China's State Council has unveiled the "Science and Technology Innovation 2030" policy framework with unprecedented funding commitments of 2.7 trillion yuan through 2030. This comprehensive strategy aims to achieve technological self-sufficiency in core areas, doubling basic research funding, creating 25 new national laboratories, and establishing special innovation zones with preferential policies. Semiconductors, quantum computing, and AI are designated as strategic sectors receiving priority support.
+2. Baidu and the Chinese Academy of Sciences have launched "Wenxin 3.0," reportedly the world's largest open-source foundation AI model with 10 trillion parameters, directly challenging OpenAI's GPT-5. The model demonstrates advanced capabilities in multimodal reasoning, scientific problem-solving, and code generation, representing China's most sophisticated AI system to date with 12 billion yuan in government funding support.
+3. The National Development and Reform Commission has released implementation guidelines for the "New Quality Productive Forces" initiative, committing 1.2 trillion yuan across 10 technology domains and establishing 85 demonstration zones. This initiative represents China's comprehensive strategy to upgrade its industrial capabilities through technological innovation while reforming resource allocation mechanisms and regulatory frameworks.
+4. China's Digital Economy Promotion Law has passed and will take effect October 1, 2025, establishing the country's first comprehensive legal framework for the digital economy. The law balances development goals with security considerations, addressing data rights, platform governance, cross-border data flows, and creating a Coordinated Digital Economy Development Committee to harmonize policies across governmental departments.
+5. The Ministry of Science and Technology has launched a comprehensive technology transfer reform that fundamentally changes how research results move from labs to industry. Key measures include allowing researchers to retain up to 70% of equity or profits from technologies they develop, creating standardized valuation methods, establishing professional transfer offices, and simplifying licensing procedures to dramatically increase commercialization rates.</t>
         </is>
       </c>
     </row>
@@ -1515,14 +1624,77 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>source</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>target</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Technology transfer</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Synthetic biology</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Biotechnology</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Strategic emerging industries</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1533,7 +1705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1556,17 +1728,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Artificial intelligence</t>
+          <t>Biotechnology</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Technology transfer</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -1576,7 +1748,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Science and technology development plan</t>
+          <t>Quantum communication</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -1586,17 +1758,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Semiconductor packaging</t>
+          <t>Synthetic biology</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Solid-state batteries</t>
+          <t>Brain-computer interface</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1606,7 +1778,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Quantum computing cloud platform</t>
+          <t>Carbon fiber composites</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1616,7 +1788,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Hydrogen energy storage</t>
+          <t>Smart city</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1626,10 +1798,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Digital RMB</t>
+          <t>Quantum computing cloud platform</t>
         </is>
       </c>
       <c r="B9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Strategic emerging industries</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>1</v>
       </c>
     </row>
